--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FACE54C-6EC7-485F-84F5-993F941611E6}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD3893D-8033-44B6-BBC1-5C255E8BBB1B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD3893D-8033-44B6-BBC1-5C255E8BBB1B}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47710AF5-79A4-4ED7-839A-3AD7E4BF7008}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Artikel</t>
   </si>
@@ -76,6 +77,12 @@
   </si>
   <si>
     <t>armbanden</t>
+  </si>
+  <si>
+    <t>Ontvanger</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -450,9 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -611,4 +616,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47710AF5-79A4-4ED7-839A-3AD7E4BF7008}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353DBD98-F497-467E-84B9-8719FAF87FBB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Artikel</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Optiek Geertrui</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -628,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,6 +645,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353DBD98-F497-467E-84B9-8719FAF87FBB}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2F4A2F-307A-4DB8-BFAF-5201326036A5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Artikel</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>ring 2</t>
-  </si>
-  <si>
-    <t>oorbel 1</t>
   </si>
   <si>
     <t>oorbel 2</t>
@@ -461,9 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -480,16 +479,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -581,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -592,29 +591,15 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
         <v>10</v>
       </c>
     </row>
@@ -628,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -639,18 +624,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2F4A2F-307A-4DB8-BFAF-5201326036A5}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE5075-5213-4F86-95F9-4690BE176CF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Artikel</t>
   </si>
@@ -82,10 +82,16 @@
     <t>Template</t>
   </si>
   <si>
-    <t>Optiek Geertrui</t>
-  </si>
-  <si>
     <t>template</t>
+  </si>
+  <si>
+    <t>Documentnaam</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>BESTELBON_ISABEL</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -499,10 +505,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -513,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -527,7 +533,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -572,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -611,31 +617,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE5075-5213-4F86-95F9-4690BE176CF9}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FDA10E-151D-47A2-A722-917274B83B4F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,10 @@
     <t>Documentnaam</t>
   </si>
   <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>BESTELBON_ISABEL</t>
+    <t>Snuisters</t>
+  </si>
+  <si>
+    <t>BESTELBON_SNUISTERS</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FDA10E-151D-47A2-A722-917274B83B4F}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D61CFC0-DBD3-4B09-86CF-966A272D1D17}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Artikel</t>
   </si>
@@ -74,24 +73,6 @@
   </si>
   <si>
     <t>armbanden</t>
-  </si>
-  <si>
-    <t>Ontvanger</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>Documentnaam</t>
-  </si>
-  <si>
-    <t>Snuisters</t>
-  </si>
-  <si>
-    <t>BESTELBON_SNUISTERS</t>
   </si>
 </sst>
 </file>
@@ -466,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -613,45 +594,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5AA66-A25E-4A7A-A513-4DF9A51C948D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D61CFC0-DBD3-4B09-86CF-966A272D1D17}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EB5305-3D5E-486E-9F2F-61DC2CA7E649}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Artikel</t>
   </si>
@@ -66,13 +66,31 @@
     <t>Winstmarge</t>
   </si>
   <si>
-    <t>Geleverd</t>
-  </si>
-  <si>
     <t>Verkocht</t>
   </si>
   <si>
     <t>armbanden</t>
+  </si>
+  <si>
+    <t>Aantal Ontvangen</t>
+  </si>
+  <si>
+    <t>Totale Verkoopprijs</t>
+  </si>
+  <si>
+    <t>Winter Green Hexagon</t>
+  </si>
+  <si>
+    <t>Winter Warmhearted Brown</t>
+  </si>
+  <si>
+    <t>Winter Serpentine</t>
+  </si>
+  <si>
+    <t>Winter Sparkle</t>
+  </si>
+  <si>
+    <t>Winter Sparkle Fine</t>
   </si>
 </sst>
 </file>
@@ -445,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -472,13 +490,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -491,8 +512,12 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <f>(B2-C2)*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -505,8 +530,12 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F14" si="0">(B3-C3)*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -519,8 +548,12 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -533,8 +566,12 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -547,8 +584,12 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -561,8 +602,12 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -575,10 +620,14 @@
       <c r="D8" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -588,6 +637,100 @@
       </c>
       <c r="D9" s="3">
         <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EB5305-3D5E-486E-9F2F-61DC2CA7E649}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F362B8D8-BEE3-4C80-8286-D30A8DA394D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F362B8D8-BEE3-4C80-8286-D30A8DA394D8}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{002D76CA-780B-47AD-BE78-F48B9F728DE3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -149,6 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +467,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -512,9 +513,12 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
       <c r="F2" s="1">
         <f>(B2-C2)*E2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -529,6 +533,9 @@
       </c>
       <c r="D3" s="3">
         <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F14" si="0">(B3-C3)*E3</f>
@@ -548,9 +555,12 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -566,9 +576,12 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -584,9 +597,12 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -602,9 +618,12 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -620,9 +639,12 @@
       <c r="D8" s="3">
         <v>8</v>
       </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,9 +660,12 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -656,9 +681,12 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
+      <c r="E10" s="5">
+        <v>45</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,9 +702,12 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,9 +723,12 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,6 +744,9 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -728,9 +765,12 @@
       <c r="D14" s="3">
         <v>3</v>
       </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bestelbon.xlsx
+++ b/Bestelbon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/seppe_vanheulenberghe_ugent_be/Documents/Seppe_2/VT/Snuisters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EB5305-3D5E-486E-9F2F-61DC2CA7E649}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{BD5CFCD5-8A60-4B84-A229-1BFF477BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D975E84E-A0CB-4C28-8B3B-C9E3C8E54039}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F78E8C9-A10A-40EE-A517-0797644B780E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Artikel</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Winter Sparkle Fine</t>
+  </si>
+  <si>
+    <t>big hoops</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2D40F-DBB6-4748-8CE6-CD83D8EC73E8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -512,9 +515,12 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
       <c r="F2" s="1">
         <f>(B2-C2)*E2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -530,9 +536,12 @@
       <c r="D3" s="3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F14" si="0">(B3-C3)*E3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F15" si="0">(B3-C3)*E3</f>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -548,9 +557,12 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -566,9 +578,12 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -584,9 +599,12 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -602,9 +620,12 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -620,9 +641,12 @@
       <c r="D8" s="3">
         <v>8</v>
       </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,9 +662,12 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -656,9 +683,12 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,9 +704,12 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,9 +725,12 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,9 +746,12 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -728,9 +767,33 @@
       <c r="D14" s="3">
         <v>2</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
